--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -258,7 +258,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,23 +266,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,10 +291,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,7 +485,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -924,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>68</v>
@@ -1339,273 +1340,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E06143E-A22E-4BEB-927D-966AA8F34AB8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C05A5BB-6EFF-44D9-B096-18425AB577EA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00562239-53F6-4B60-8C7D-EF40C733E318}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="74">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Unito civilmente 1</t>
@@ -283,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,13 +454,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -459,19 +468,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -479,19 +488,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -499,19 +508,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -519,19 +528,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -539,19 +548,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -559,19 +568,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -579,19 +588,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -599,19 +608,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -619,19 +628,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -639,19 +648,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -659,19 +668,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -679,19 +688,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -699,19 +708,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -719,19 +728,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -739,19 +748,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -759,19 +768,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -779,19 +788,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -799,19 +808,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -819,19 +828,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -839,19 +848,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -859,19 +868,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -879,19 +888,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -899,19 +908,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -919,19 +928,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -939,19 +948,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -959,19 +968,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -979,19 +988,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -999,19 +1008,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1019,19 +1028,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1039,19 +1048,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1059,19 +1068,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1079,19 +1088,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1099,19 +1108,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1119,19 +1128,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1139,19 +1148,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1159,19 +1168,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1179,19 +1188,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1199,19 +1208,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1219,19 +1228,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1239,19 +1248,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1259,19 +1268,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1279,19 +1288,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1299,19 +1308,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1319,21 +1328,41 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,24 +74,48 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Unito civilmente 1</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -218,7 +242,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -292,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -302,7 +326,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -454,13 +478,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -468,19 +492,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -488,19 +512,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -508,19 +532,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -528,19 +552,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -548,16 +572,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -568,7 +592,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -577,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -588,16 +612,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -608,16 +632,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -628,16 +652,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -648,16 +672,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -668,16 +692,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -688,16 +712,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -708,16 +732,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -728,16 +752,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -748,16 +772,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -768,16 +792,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -788,16 +812,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -808,16 +832,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -828,16 +852,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -848,16 +872,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -868,16 +892,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -888,16 +912,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -908,19 +932,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -928,19 +952,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -948,19 +972,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -968,19 +992,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -988,16 +1012,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>35</v>
@@ -1008,7 +1032,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -1017,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>37</v>
@@ -1028,16 +1052,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>39</v>
@@ -1048,16 +1072,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>41</v>
@@ -1068,16 +1092,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -1088,16 +1112,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
@@ -1108,16 +1132,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
@@ -1128,16 +1152,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>49</v>
@@ -1148,16 +1172,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>51</v>
@@ -1168,16 +1192,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>53</v>
@@ -1188,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -1208,16 +1232,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>57</v>
@@ -1228,16 +1252,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>59</v>
@@ -1248,16 +1272,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>61</v>
@@ -1268,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
@@ -1288,16 +1312,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>65</v>
@@ -1308,16 +1332,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>67</v>
@@ -1328,16 +1352,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>69</v>
@@ -1348,21 +1372,101 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -110,6 +116,63 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Data unione civile</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Unito civilmente 1</t>
   </si>
   <si>
@@ -252,6 +315,81 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto collegato</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -316,18 +454,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,25 +488,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -389,1085 +534,1710 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -466,7 +466,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.4.3</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.4.3</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -535,1709 +538,1709 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -170,7 +170,7 @@
     <t>Comune estero</t>
   </si>
   <si>
-    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
+    <t>evento.trascrizioneUnioneCivile.attoEstero.enteEstero</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -466,7 +466,7 @@
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -940,7 +940,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>56</v>
@@ -1170,7 +1170,7 @@
         <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>56</v>
@@ -1193,7 +1193,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>56</v>
@@ -1216,7 +1216,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>56</v>
@@ -1239,7 +1239,7 @@
         <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>56</v>
@@ -1446,7 +1446,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>101</v>
@@ -1676,7 +1676,7 @@
         <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>101</v>
@@ -1699,7 +1699,7 @@
         <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>101</v>
@@ -1722,7 +1722,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>101</v>
@@ -1745,7 +1745,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>101</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,30 @@
   </si>
   <si>
     <t>composizioneCompleta</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -457,17 +481,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2243,6 +2267,75 @@
         <v>16</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,7 +167,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>evento.trascrizioneUnioneCivile.attoEstero.enteEstero</t>
@@ -242,6 +242,9 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -377,22 +380,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1191,7 +1194,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1200,7 +1203,7 @@
         <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1214,7 +1217,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -1223,7 +1226,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1237,7 +1240,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -1246,7 +1249,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1260,7 +1263,7 @@
         <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -1269,7 +1272,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1283,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -1292,7 +1295,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1306,7 +1309,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
@@ -1315,7 +1318,7 @@
         <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1332,7 @@
         <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -1338,7 +1341,7 @@
         <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1352,7 +1355,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
@@ -1361,7 +1364,7 @@
         <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1375,7 +1378,7 @@
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
@@ -1384,7 +1387,7 @@
         <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1398,16 +1401,16 @@
         <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1421,7 +1424,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1430,7 +1433,7 @@
         <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1444,16 +1447,16 @@
         <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1467,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1970,341 +1973,341 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2315,24 +2318,70 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -2209,7 +2209,7 @@
         <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>105</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -484,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1490,19 +1514,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1537,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1560,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1583,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1606,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,369 +2043,553 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -245,13 +251,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1060,7 +1066,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>56</v>
@@ -1129,7 +1135,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>56</v>
@@ -1218,7 +1224,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1227,7 +1233,7 @@
         <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1241,7 +1247,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -1451,7 +1457,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>56</v>
@@ -1497,7 +1503,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>56</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,22 +2236,22 @@
         <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -2253,298 +2259,298 @@
         <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89">
@@ -2552,16 +2558,16 @@
         <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,24 +2578,70 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1480,7 +1486,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>56</v>
@@ -1526,7 +1532,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>56</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,22 +2288,22 @@
         <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -2305,298 +2311,298 @@
         <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
@@ -2604,16 +2610,16 @@
         <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,24 +2630,70 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1509,7 +1515,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>56</v>
@@ -1555,7 +1561,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>56</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,22 +2340,22 @@
         <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -2357,298 +2363,298 @@
         <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
@@ -2656,16 +2662,16 @@
         <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2676,24 +2682,70 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2659,16 +2665,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>143</v>
@@ -2677,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
@@ -2685,16 +2691,16 @@
         <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,16 +2711,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>149</v>
@@ -2728,7 +2734,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>150</v>
@@ -2737,7 +2743,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>151</v>
@@ -2746,6 +2752,29 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
+  </si>
+  <si>
     <t>Data unione civile</t>
   </si>
   <si>
@@ -357,6 +363,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -532,14 +544,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
@@ -831,13 +843,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -851,16 +863,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -874,13 +886,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -900,10 +912,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -926,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -949,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -972,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -995,10 +1007,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1009,19 +1021,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1032,16 +1044,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>59</v>
@@ -1055,16 +1067,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>61</v>
@@ -1078,7 +1090,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>62</v>
@@ -1087,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
@@ -1101,16 +1113,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>65</v>
@@ -1124,7 +1136,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>66</v>
@@ -1133,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>67</v>
@@ -1147,7 +1159,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>68</v>
@@ -1156,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>69</v>
@@ -1170,16 +1182,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
@@ -1193,7 +1205,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>72</v>
@@ -1202,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>73</v>
@@ -1216,7 +1228,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>74</v>
@@ -1225,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>75</v>
@@ -1239,7 +1251,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>76</v>
@@ -1248,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>77</v>
@@ -1262,19 +1274,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1285,16 +1297,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1308,7 +1320,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1317,7 +1329,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1331,7 +1343,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1340,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1354,7 +1366,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1363,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1377,7 +1389,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1386,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1400,7 +1412,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1409,7 +1421,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1423,7 +1435,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1432,7 +1444,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1446,7 +1458,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1455,7 +1467,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1469,7 +1481,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1478,7 +1490,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1492,7 +1504,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1501,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1515,7 +1527,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1524,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1538,16 +1550,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1561,7 +1573,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1570,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1584,16 +1596,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1607,7 +1619,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1616,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1630,7 +1642,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1639,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1653,7 +1665,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1662,7 +1674,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1676,7 +1688,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1685,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1699,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1757,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1780,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1803,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1918,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1941,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2010,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2033,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2056,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2148,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2240,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2263,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2286,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,392 +2401,484 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,12 +119,6 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
-  </si>
-  <si>
     <t>Data unione civile</t>
   </si>
   <si>
@@ -363,12 +357,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -544,14 +532,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
@@ -843,13 +831,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -863,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -886,13 +874,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -912,10 +900,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -938,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -961,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -984,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1007,10 +995,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1021,19 +1009,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1044,16 +1032,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>59</v>
@@ -1067,16 +1055,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>61</v>
@@ -1090,7 +1078,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>62</v>
@@ -1099,7 +1087,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
@@ -1113,16 +1101,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>65</v>
@@ -1136,7 +1124,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>66</v>
@@ -1145,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>67</v>
@@ -1159,7 +1147,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>68</v>
@@ -1168,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>69</v>
@@ -1182,16 +1170,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
@@ -1205,7 +1193,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>72</v>
@@ -1214,7 +1202,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>73</v>
@@ -1228,7 +1216,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>74</v>
@@ -1237,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>75</v>
@@ -1251,7 +1239,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>76</v>
@@ -1260,7 +1248,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>77</v>
@@ -1274,19 +1262,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1297,16 +1285,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1320,7 +1308,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1329,7 +1317,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1343,7 +1331,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1352,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1366,7 +1354,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1375,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1389,7 +1377,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1398,7 +1386,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1412,7 +1400,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1421,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1435,7 +1423,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1444,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1458,7 +1446,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1467,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1481,7 +1469,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1490,7 +1478,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1504,7 +1492,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1513,7 +1501,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1527,7 +1515,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1536,7 +1524,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1550,16 +1538,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1573,7 +1561,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1582,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1596,16 +1584,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1619,7 +1607,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1628,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1642,7 +1630,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1651,7 +1639,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1665,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1674,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1688,7 +1676,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1697,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1711,19 +1699,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1722,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1745,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1768,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1791,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1814,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1837,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1860,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1883,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1906,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1929,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1952,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1975,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +1998,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2021,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2044,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2067,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2090,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2113,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2136,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2159,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2182,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2205,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2228,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2251,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2274,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2297,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2320,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2343,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2366,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,387 +2389,387 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,93 +2780,24 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
+  </si>
+  <si>
     <t>Data unione civile</t>
   </si>
   <si>
@@ -357,6 +363,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -532,14 +544,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
@@ -831,13 +843,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -851,16 +863,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -874,13 +886,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -900,10 +912,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -926,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -949,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -972,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -995,10 +1007,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1009,19 +1021,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1032,16 +1044,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>59</v>
@@ -1055,16 +1067,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>61</v>
@@ -1078,7 +1090,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>62</v>
@@ -1087,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
@@ -1101,16 +1113,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>65</v>
@@ -1124,7 +1136,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>66</v>
@@ -1133,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>67</v>
@@ -1147,7 +1159,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>68</v>
@@ -1156,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>69</v>
@@ -1170,16 +1182,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
@@ -1193,7 +1205,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>72</v>
@@ -1202,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>73</v>
@@ -1216,7 +1228,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>74</v>
@@ -1225,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>75</v>
@@ -1239,7 +1251,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>76</v>
@@ -1248,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>77</v>
@@ -1262,19 +1274,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1285,16 +1297,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1308,7 +1320,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1317,7 +1329,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1331,7 +1343,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1340,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1354,7 +1366,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1363,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1377,7 +1389,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1386,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1400,7 +1412,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1409,7 +1421,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1423,7 +1435,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1432,7 +1444,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1446,7 +1458,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1455,7 +1467,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1469,7 +1481,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1478,7 +1490,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1492,7 +1504,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1501,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1515,7 +1527,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1524,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1538,16 +1550,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1561,7 +1573,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1570,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1584,16 +1596,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1607,7 +1619,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1616,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1630,7 +1642,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1639,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1653,7 +1665,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1662,7 +1674,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1676,7 +1688,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1685,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1699,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1757,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1780,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1803,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1918,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1941,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2010,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2033,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2056,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2148,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2240,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2263,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2286,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,387 +2401,387 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,24 +2792,93 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -544,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1142,7 +1154,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>58</v>
@@ -1165,7 +1177,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>58</v>
@@ -1211,7 +1223,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>58</v>
@@ -1234,7 +1246,7 @@
         <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>58</v>
@@ -1300,7 +1312,7 @@
         <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -1309,7 +1321,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1323,7 +1335,7 @@
         <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -1332,7 +1344,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1346,7 +1358,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -1579,7 +1591,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>58</v>
@@ -1602,7 +1614,7 @@
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>58</v>
@@ -1625,7 +1637,7 @@
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>58</v>
@@ -1648,7 +1660,7 @@
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>58</v>
@@ -1757,19 +1769,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1815,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1838,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1861,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1884,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1907,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1930,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1953,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1976,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1999,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2022,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2045,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2068,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2091,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2114,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2137,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2160,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2183,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2206,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2229,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2252,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2275,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2298,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2321,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2344,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2459,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,415 +2482,507 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -1131,7 +1131,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>58</v>
@@ -1890,7 +1890,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>124</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -618,63 +624,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -683,90 +689,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -775,21 +781,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -798,21 +804,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -821,21 +827,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -844,21 +850,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -867,12 +873,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -881,53 +887,53 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -936,21 +942,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -959,21 +965,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -982,21 +988,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1005,21 +1011,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1028,67 +1034,67 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>61</v>
@@ -1097,21 +1103,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
@@ -1120,12 +1126,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>64</v>
@@ -1134,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>65</v>
@@ -1143,21 +1149,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>67</v>
@@ -1166,21 +1172,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>69</v>
@@ -1189,12 +1195,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
@@ -1203,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
@@ -1212,21 +1218,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>73</v>
@@ -1235,21 +1241,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>75</v>
@@ -1258,21 +1264,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>77</v>
@@ -1281,21 +1287,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>79</v>
@@ -1304,21 +1310,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>81</v>
@@ -1327,21 +1333,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>83</v>
@@ -1350,44 +1356,44 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1396,21 +1402,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1419,21 +1425,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1442,21 +1448,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1465,21 +1471,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1488,21 +1494,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1511,21 +1517,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1534,21 +1540,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1557,21 +1563,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1580,21 +1586,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1603,21 +1609,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1626,12 +1632,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1640,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1649,21 +1655,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1672,21 +1678,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1695,21 +1701,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1718,21 +1724,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1741,21 +1747,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1764,21 +1770,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1787,21 +1793,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1810,44 +1816,44 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>61</v>
@@ -1856,21 +1862,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
@@ -1879,12 +1885,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>64</v>
@@ -1893,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>65</v>
@@ -1902,21 +1908,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>67</v>
@@ -1925,21 +1931,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>69</v>
@@ -1948,12 +1954,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>70</v>
@@ -1962,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>71</v>
@@ -1971,21 +1977,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>73</v>
@@ -1994,21 +2000,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>75</v>
@@ -2017,21 +2023,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>77</v>
@@ -2040,21 +2046,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>79</v>
@@ -2063,21 +2069,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>81</v>
@@ -2086,21 +2092,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>83</v>
@@ -2109,44 +2115,44 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
@@ -2155,21 +2161,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
@@ -2178,21 +2184,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
@@ -2201,21 +2207,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>92</v>
@@ -2224,21 +2230,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
@@ -2247,21 +2253,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>96</v>
@@ -2270,21 +2276,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>98</v>
@@ -2293,21 +2299,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>100</v>
@@ -2316,21 +2322,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>102</v>
@@ -2339,21 +2345,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>104</v>
@@ -2362,21 +2368,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>106</v>
@@ -2385,12 +2391,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>107</v>
@@ -2399,7 +2405,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>108</v>
@@ -2408,21 +2414,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>110</v>
@@ -2431,21 +2437,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>112</v>
@@ -2454,21 +2460,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>114</v>
@@ -2477,21 +2483,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>116</v>
@@ -2500,21 +2506,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>118</v>
@@ -2523,21 +2529,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>120</v>
@@ -2546,21 +2552,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>122</v>
@@ -2569,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -2577,59 +2583,59 @@
         <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>133</v>
@@ -2638,21 +2644,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>135</v>
@@ -2661,21 +2667,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>137</v>
@@ -2684,21 +2690,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>139</v>
@@ -2707,113 +2713,113 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>147</v>
@@ -2822,21 +2828,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>149</v>
@@ -2845,21 +2851,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>151</v>
@@ -2868,12 +2874,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>152</v>
@@ -2882,7 +2888,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>153</v>
@@ -2891,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
@@ -2899,36 +2905,36 @@
         <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>159</v>
@@ -2937,21 +2943,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>161</v>
@@ -2960,30 +2966,53 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>16</v>
+      <c r="B106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Data unione civile</t>
@@ -562,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -907,13 +913,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -927,16 +933,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -950,13 +956,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -976,10 +982,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1002,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1025,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1048,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1071,10 +1077,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1085,19 +1091,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1108,16 +1114,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
@@ -1131,16 +1137,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>65</v>
@@ -1154,16 +1160,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>67</v>
@@ -1177,16 +1183,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>69</v>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
@@ -1209,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
@@ -1223,16 +1229,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>73</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>74</v>
@@ -1255,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>75</v>
@@ -1269,7 +1275,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>76</v>
@@ -1278,7 +1284,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>77</v>
@@ -1292,16 +1298,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>79</v>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>80</v>
@@ -1324,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>81</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>82</v>
@@ -1347,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>83</v>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>84</v>
@@ -1370,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1384,19 +1390,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1407,16 +1413,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1439,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1453,7 +1459,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1462,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1485,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1499,7 +1505,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1508,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1531,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1554,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1577,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1600,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1623,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1646,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1660,16 +1666,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1683,7 +1689,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1692,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1706,16 +1712,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1738,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1761,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1775,7 +1781,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1784,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1798,7 +1804,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1807,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1821,7 +1827,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>123</v>
@@ -1830,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>124</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,16 +1873,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
@@ -1890,16 +1896,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>65</v>
@@ -1913,16 +1919,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>67</v>
@@ -1936,16 +1942,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>69</v>
@@ -1959,7 +1965,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>70</v>
@@ -1968,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>71</v>
@@ -1982,16 +1988,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>73</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>74</v>
@@ -2014,7 +2020,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>75</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>76</v>
@@ -2037,7 +2043,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>77</v>
@@ -2051,16 +2057,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>79</v>
@@ -2074,7 +2080,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
@@ -2083,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>81</v>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>82</v>
@@ -2106,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>83</v>
@@ -2120,7 +2126,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
@@ -2129,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>85</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,16 +2172,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
@@ -2189,7 +2195,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
@@ -2198,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>91</v>
@@ -2221,7 +2227,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>92</v>
@@ -2235,7 +2241,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>93</v>
@@ -2244,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
@@ -2267,7 +2273,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>96</v>
@@ -2281,7 +2287,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>97</v>
@@ -2290,7 +2296,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>98</v>
@@ -2304,7 +2310,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>99</v>
@@ -2313,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>100</v>
@@ -2327,7 +2333,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>101</v>
@@ -2336,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>102</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>103</v>
@@ -2359,7 +2365,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>104</v>
@@ -2373,7 +2379,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>105</v>
@@ -2382,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>106</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>107</v>
@@ -2405,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>108</v>
@@ -2419,16 +2425,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>110</v>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>111</v>
@@ -2451,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>112</v>
@@ -2465,16 +2471,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>114</v>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>115</v>
@@ -2497,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>116</v>
@@ -2511,7 +2517,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>117</v>
@@ -2520,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>118</v>
@@ -2534,7 +2540,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>119</v>
@@ -2543,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>120</v>
@@ -2557,7 +2563,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
@@ -2566,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>122</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>123</v>
@@ -2589,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>124</v>
@@ -2606,50 +2612,50 @@
         <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>134</v>
@@ -2658,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>135</v>
@@ -2667,12 +2673,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>136</v>
@@ -2681,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>137</v>
@@ -2690,12 +2696,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>138</v>
@@ -2704,7 +2710,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>139</v>
@@ -2713,12 +2719,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>140</v>
@@ -2727,7 +2733,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>141</v>
@@ -2736,12 +2742,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>142</v>
@@ -2750,90 +2756,90 @@
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>148</v>
@@ -2842,7 +2848,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>149</v>
@@ -2851,12 +2857,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>150</v>
@@ -2865,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>151</v>
@@ -2874,12 +2880,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>152</v>
@@ -2888,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>153</v>
@@ -2897,21 +2903,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>155</v>
@@ -2920,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
@@ -2928,16 +2934,16 @@
         <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2948,16 +2954,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>161</v>
@@ -2971,7 +2977,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>162</v>
@@ -2980,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>163</v>
@@ -2994,24 +3000,47 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>19</v>
       </c>
     </row>
